--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-04/Sample-04.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-04/Sample-04.xlsx
@@ -7,6 +7,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$B$1</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -66,8 +69,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="di0cqldk" xfId="1"/>
-    <cellStyle name="di0cqldk_Alternate" xfId="2"/>
+    <cellStyle name="hxjyoxbq" xfId="1"/>
+    <cellStyle name="hxjyoxbq_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -77,9 +80,12 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="1"/>
+    <sheetView workbookViewId="0" showGridLines="1" view="pageLayout"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="78.8826522827148" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="3" t="s">
@@ -87,6 +93,13 @@
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.984250" right="0.984250" top="0.984250" bottom="0.984250" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="8" orientation="landscape"/>
+  <headerFooter differentOddEven="1">
+    <oddHeader>&amp;LSample header&amp;CiTin&amp;RHeader text</oddHeader>
+    <oddFooter>&amp;LSample footer&amp;CiTin&amp;R&amp;P / &amp;N</oddFooter>
+    <evenHeader>&amp;LSample header&amp;CiTin&amp;RHeader text</evenHeader>
+    <evenFooter>&amp;LSample footer&amp;CiTin&amp;R&amp;P / &amp;N</evenFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-04/Sample-04.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-04/Sample-04.xlsx
@@ -69,8 +69,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="hxjyoxbq" xfId="1"/>
-    <cellStyle name="hxjyoxbq_Alternate" xfId="2"/>
+    <cellStyle name="tl0ubfsp" xfId="1"/>
+    <cellStyle name="tl0ubfsp_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-04/Sample-04.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-04/Sample-04.xlsx
@@ -69,8 +69,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="tl0ubfsp" xfId="1"/>
-    <cellStyle name="tl0ubfsp_Alternate" xfId="2"/>
+    <cellStyle name="uzosyfzq" xfId="1"/>
+    <cellStyle name="uzosyfzq_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
